--- a/Sheets/对照表/综合对照表.xlsx
+++ b/Sheets/对照表/综合对照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F085CB-C36C-4B86-B449-20014F030B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E3B4FA-446D-4860-B9C1-9F87C60CED4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2170" yWindow="7290" windowWidth="20830" windowHeight="6390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="characters" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>default</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -175,7 +175,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>senpai</t>
+    <t>default</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +780,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/Sheets/对照表/综合对照表.xlsx
+++ b/Sheets/对照表/综合对照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E3B4FA-446D-4860-B9C1-9F87C60CED4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36CDA80-D9CD-422C-8EF1-6A8CB946CA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2170" yWindow="7290" windowWidth="20830" windowHeight="6390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="characters" sheetId="4" r:id="rId1"/>
@@ -37,158 +37,173 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王爷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁白</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>记者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>田所浩二</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立绘位置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml映射名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>characters</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\Maps\characters.xml</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>annotations</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\Maps\annotations.xml</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员制餐厅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>德川我修院用过膳的地方</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>野兽先辈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>既田所浩二</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>functions</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\Maps\functions.xml</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束注释</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃过一劫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Escape</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>撅了</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
   <si>
     <t>default</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>奴才</t>
+    <t>Ii</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>王爷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>旁白</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>你</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>记者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>田所浩二</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>立绘位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xml映射名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>characters</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\Maps\characters.xml</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>annotations</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\Maps\annotations.xml</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员制餐厅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>德川我修院用过膳的地方</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>野兽先辈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>既田所浩二</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>functions</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\Maps\functions.xml</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束注释</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>End</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>逃过一劫</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Escape</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>撅了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jue</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>文本替换i</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -278,15 +293,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -304,64 +310,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -372,13 +381,15 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -501,16 +512,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{99F71681-C851-4EF0-9413-4326E5EAB3AE}" name="functionsTable" displayName="functionsTable" ref="A1:C5" tableType="xml" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" connectionId="3">
-  <autoFilter ref="A1:C5" xr:uid="{DB1CCF6D-0F2D-4267-A40F-85604EBAE44C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{99F71681-C851-4EF0-9413-4326E5EAB3AE}" name="functionsTable" displayName="functionsTable" ref="A1:C6" tableType="xml" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" connectionId="3">
+  <autoFilter ref="A1:C6" xr:uid="{DB1CCF6D-0F2D-4267-A40F-85604EBAE44C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4476C495-36FD-4E93-AB28-EBA96CCC6C86}" uniqueName="id" name="id" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{4476C495-36FD-4E93-AB28-EBA96CCC6C86}" uniqueName="id" name="id" dataDxfId="0" dataCellStyle="常规 2">
       <xmlColumnPr mapId="5" xpath="/functions/line/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DE9B5CFC-912C-4EAA-9ED9-38ADFB8B7DC7}" uniqueName="functionName" name="函数名" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{DE9B5CFC-912C-4EAA-9ED9-38ADFB8B7DC7}" uniqueName="functionName" name="函数名" dataDxfId="3">
       <xmlColumnPr mapId="5" xpath="/functions/line/@functionName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C53D2EDE-FA1A-4AC1-887B-D3421F9DF9DA}" uniqueName="3" name="注释" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C53D2EDE-FA1A-4AC1-887B-D3421F9DF9DA}" uniqueName="3" name="注释" dataDxfId="1" dataCellStyle="注释 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -521,7 +532,7 @@
   <autoFilter ref="A1:B5" xr:uid="{41F4C979-F762-4743-A527-52A6D91B989C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A4D537EC-6E12-411C-9DE5-6D3BA713D7E7}" name="xml映射名称"/>
-    <tableColumn id="2" xr3:uid="{58BB80A7-E081-4F57-AB6E-D98EF686B935}" name="保存地址" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{58BB80A7-E081-4F57-AB6E-D98EF686B935}" name="保存地址" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -779,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C0F65C-7C18-408E-A577-FF1A0B38F815}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -813,7 +824,7 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -867,7 +878,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -914,7 +925,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -925,7 +936,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
@@ -936,77 +947,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699CDDF3-E25F-40B1-8D5F-B4736FFA114E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1065,7 +1087,7 @@
       <c r="B5" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Sheets/对照表/综合对照表.xlsx
+++ b/Sheets/对照表/综合对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36CDA80-D9CD-422C-8EF1-6A8CB946CA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB263F6A-3226-4E54-8C2C-1865A5877B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>default</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -184,6 +184,13 @@
   </si>
   <si>
     <t>文本替换i</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interpolate</t>
+  </si>
+  <si>
+    <t>文本替换</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +376,15 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -381,15 +397,21 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -512,8 +534,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{99F71681-C851-4EF0-9413-4326E5EAB3AE}" name="functionsTable" displayName="functionsTable" ref="A1:C6" tableType="xml" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" connectionId="3">
-  <autoFilter ref="A1:C6" xr:uid="{DB1CCF6D-0F2D-4267-A40F-85604EBAE44C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{99F71681-C851-4EF0-9413-4326E5EAB3AE}" name="functionsTable" displayName="functionsTable" ref="A1:C7" tableType="xml" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" connectionId="3">
+  <autoFilter ref="A1:C7" xr:uid="{DB1CCF6D-0F2D-4267-A40F-85604EBAE44C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4476C495-36FD-4E93-AB28-EBA96CCC6C86}" uniqueName="id" name="id" dataDxfId="0" dataCellStyle="常规 2">
       <xmlColumnPr mapId="5" xpath="/functions/line/@id" xmlDataType="string"/>
@@ -521,7 +543,7 @@
     <tableColumn id="2" xr3:uid="{DE9B5CFC-912C-4EAA-9ED9-38ADFB8B7DC7}" uniqueName="functionName" name="函数名" dataDxfId="3">
       <xmlColumnPr mapId="5" xpath="/functions/line/@functionName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C53D2EDE-FA1A-4AC1-887B-D3421F9DF9DA}" uniqueName="3" name="注释" dataDxfId="1" dataCellStyle="注释 2"/>
+    <tableColumn id="3" xr3:uid="{C53D2EDE-FA1A-4AC1-887B-D3421F9DF9DA}" uniqueName="3" name="注释" dataDxfId="2" dataCellStyle="注释 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -532,7 +554,7 @@
   <autoFilter ref="A1:B5" xr:uid="{41F4C979-F762-4743-A527-52A6D91B989C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A4D537EC-6E12-411C-9DE5-6D3BA713D7E7}" name="xml映射名称"/>
-    <tableColumn id="2" xr3:uid="{58BB80A7-E081-4F57-AB6E-D98EF686B935}" name="保存地址" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{58BB80A7-E081-4F57-AB6E-D98EF686B935}" name="保存地址" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -947,22 +969,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699CDDF3-E25F-40B1-8D5F-B4736FFA114E}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="14" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -973,7 +995,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="22">
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -984,7 +1006,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -995,7 +1017,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -1006,7 +1028,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -1017,7 +1039,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -1025,6 +1047,17 @@
       </c>
       <c r="C6" s="20" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Sheets/对照表/综合对照表.xlsx
+++ b/Sheets/对照表/综合对照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB263F6A-3226-4E54-8C2C-1865A5877B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF52516-7727-4286-8029-5DEDB1CFAC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="characters" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>default</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>default</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Ii</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -192,6 +188,10 @@
   <si>
     <t>文本替换</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>senpai</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -328,7 +328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,8 +368,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -378,15 +377,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -397,6 +391,16 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -404,16 +408,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -537,13 +531,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{99F71681-C851-4EF0-9413-4326E5EAB3AE}" name="functionsTable" displayName="functionsTable" ref="A1:C7" tableType="xml" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" connectionId="3">
   <autoFilter ref="A1:C7" xr:uid="{DB1CCF6D-0F2D-4267-A40F-85604EBAE44C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4476C495-36FD-4E93-AB28-EBA96CCC6C86}" uniqueName="id" name="id" dataDxfId="0" dataCellStyle="常规 2">
+    <tableColumn id="1" xr3:uid="{4476C495-36FD-4E93-AB28-EBA96CCC6C86}" uniqueName="id" name="id" dataDxfId="3" dataCellStyle="常规 2">
       <xmlColumnPr mapId="5" xpath="/functions/line/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DE9B5CFC-912C-4EAA-9ED9-38ADFB8B7DC7}" uniqueName="functionName" name="函数名" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{DE9B5CFC-912C-4EAA-9ED9-38ADFB8B7DC7}" uniqueName="functionName" name="函数名" dataDxfId="2">
       <xmlColumnPr mapId="5" xpath="/functions/line/@functionName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C53D2EDE-FA1A-4AC1-887B-D3421F9DF9DA}" uniqueName="3" name="注释" dataDxfId="2" dataCellStyle="注释 2"/>
+    <tableColumn id="3" xr3:uid="{C53D2EDE-FA1A-4AC1-887B-D3421F9DF9DA}" uniqueName="3" name="注释" dataDxfId="1" dataCellStyle="注释 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -554,7 +548,7 @@
   <autoFilter ref="A1:B5" xr:uid="{41F4C979-F762-4743-A527-52A6D91B989C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A4D537EC-6E12-411C-9DE5-6D3BA713D7E7}" name="xml映射名称"/>
-    <tableColumn id="2" xr3:uid="{58BB80A7-E081-4F57-AB6E-D98EF686B935}" name="保存地址" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{58BB80A7-E081-4F57-AB6E-D98EF686B935}" name="保存地址" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C0F65C-7C18-408E-A577-FF1A0B38F815}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -846,8 +840,8 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>34</v>
+      <c r="C2" s="21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,31 +965,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699CDDF3-E25F-40B1-8D5F-B4736FFA114E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="14" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="13">
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -1006,7 +1000,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -1017,7 +1011,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -1028,7 +1022,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -1039,25 +1033,25 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="20" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>5</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Sheets/对照表/综合对照表.xlsx
+++ b/Sheets/对照表/综合对照表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF52516-7727-4286-8029-5DEDB1CFAC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6581C4D-13C0-44F1-BB54-3A144F318CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="characters" sheetId="4" r:id="rId1"/>
@@ -37,173 +37,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>default</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王爷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁白</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>你</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>记者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml映射名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>奴才</t>
+    <t>保存地址</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>王爷</t>
+    <t>characters</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>旁白</t>
+    <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\Maps\characters.xml</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>annotations</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\Maps\annotations.xml</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员制餐厅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>德川我修院用过膳的地方</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>野兽先辈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>既田所浩二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>functions</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\Maps\functions.xml</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束注释</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃过一劫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Escape</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>撅了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ii</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>你</t>
+    <t>文本替换i</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interpolate</t>
+  </si>
+  <si>
+    <t>文本替换</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>senpai</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>记者</t>
+    <t>Game Master</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>You</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>田所浩二</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>annotation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protrait</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The dialogue window will disappear</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>立绘位置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>xml映射名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>characters</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\Maps\characters.xml</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>annotations</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\Maps\annotations.xml</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员制餐厅</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>德川我修院用过膳的地方</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>野兽先辈</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>既田所浩二</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>functions</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\Maps\functions.xml</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束注释</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>End</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>逃过一劫</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Escape</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>撅了</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jue</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ii</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本替换i</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interpolate</t>
-  </si>
-  <si>
-    <t>文本替换</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>senpai</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,70 +336,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -389,7 +416,30 @@
     <cellStyle name="注释 2" xfId="2" xr:uid="{4CCA4CA3-98B2-48AA-AB79-430FB27C2FA0}"/>
     <cellStyle name="注释 3" xfId="4" xr:uid="{ED50BAB0-6567-478E-9E83-E5A090E7F2A6}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -493,29 +543,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C276CED8-3778-423E-95D9-3584EAB1AD8C}" name="charactersTable" displayName="charactersTable" ref="A1:D7" tableType="xml" totalsRowShown="0" connectionId="2">
-  <autoFilter ref="A1:D7" xr:uid="{01867D14-438D-468E-8417-C64A2898D8FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C276CED8-3778-423E-95D9-3584EAB1AD8C}" name="charactersTable" displayName="charactersTable" ref="A1:D9" tableType="xml" totalsRowShown="0" connectionId="2">
+  <autoFilter ref="A1:D9" xr:uid="{01867D14-438D-468E-8417-C64A2898D8FF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A862560A-D215-4805-9E74-188B761BE6B3}" uniqueName="id" name="id">
+    <tableColumn id="1" xr3:uid="{A862560A-D215-4805-9E74-188B761BE6B3}" uniqueName="id" name="id" dataDxfId="1" dataCellStyle="常规 2">
       <xmlColumnPr mapId="1" xpath="/characters/character/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F80E64B8-FE2E-40B5-A3A5-A4F87565EF4D}" uniqueName="name" name="名称">
+    <tableColumn id="2" xr3:uid="{F80E64B8-FE2E-40B5-A3A5-A4F87565EF4D}" uniqueName="name" name="Name">
       <xmlColumnPr mapId="1" xpath="/characters/character/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6C0D92A3-4EB4-4660-AA54-A7585A74D393}" uniqueName="display" name="立绘位置">
+    <tableColumn id="3" xr3:uid="{6C0D92A3-4EB4-4660-AA54-A7585A74D393}" uniqueName="display" name="Protrait">
       <xmlColumnPr mapId="1" xpath="/characters/character/@display" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{924CFEB3-DBA6-4EE4-B1FF-1A841114A395}" uniqueName="4" name="备注"/>
+    <tableColumn id="4" xr3:uid="{924CFEB3-DBA6-4EE4-B1FF-1A841114A395}" uniqueName="4" name="annotation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F1D7EF4A-E52A-470F-A0CF-FFF4538AA1B0}" name="Table1" displayName="Table1" ref="A1:C3" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C3" xr:uid="{9056951A-5809-4074-B962-34F6E5C9DB13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F1D7EF4A-E52A-470F-A0CF-FFF4538AA1B0}" name="Table1" displayName="Table1" ref="A1:C4" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C4" xr:uid="{9056951A-5809-4074-B962-34F6E5C9DB13}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E9310B07-B380-414C-9E45-0C6298F95B6D}" uniqueName="id" name="id">
+    <tableColumn id="1" xr3:uid="{E9310B07-B380-414C-9E45-0C6298F95B6D}" uniqueName="id" name="id" dataDxfId="0">
       <xmlColumnPr mapId="2" xpath="/annotations/annotation/@id" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{30DE3193-94AA-4FA5-9AA2-20CCECF6B075}" uniqueName="content" name="内容">
@@ -528,16 +578,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{99F71681-C851-4EF0-9413-4326E5EAB3AE}" name="functionsTable" displayName="functionsTable" ref="A1:C7" tableType="xml" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" connectionId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{99F71681-C851-4EF0-9413-4326E5EAB3AE}" name="functionsTable" displayName="functionsTable" ref="A1:C7" tableType="xml" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" connectionId="3">
   <autoFilter ref="A1:C7" xr:uid="{DB1CCF6D-0F2D-4267-A40F-85604EBAE44C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4476C495-36FD-4E93-AB28-EBA96CCC6C86}" uniqueName="id" name="id" dataDxfId="3" dataCellStyle="常规 2">
+    <tableColumn id="1" xr3:uid="{4476C495-36FD-4E93-AB28-EBA96CCC6C86}" uniqueName="id" name="id" dataDxfId="5" dataCellStyle="常规 2">
       <xmlColumnPr mapId="5" xpath="/functions/line/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DE9B5CFC-912C-4EAA-9ED9-38ADFB8B7DC7}" uniqueName="functionName" name="函数名" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{DE9B5CFC-912C-4EAA-9ED9-38ADFB8B7DC7}" uniqueName="functionName" name="函数名" dataDxfId="4">
       <xmlColumnPr mapId="5" xpath="/functions/line/@functionName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C53D2EDE-FA1A-4AC1-887B-D3421F9DF9DA}" uniqueName="3" name="注释" dataDxfId="1" dataCellStyle="注释 2"/>
+    <tableColumn id="3" xr3:uid="{C53D2EDE-FA1A-4AC1-887B-D3421F9DF9DA}" uniqueName="3" name="注释" dataDxfId="3" dataCellStyle="注释 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -548,7 +598,7 @@
   <autoFilter ref="A1:B5" xr:uid="{41F4C979-F762-4743-A527-52A6D91B989C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A4D537EC-6E12-411C-9DE5-6D3BA713D7E7}" name="xml映射名称"/>
-    <tableColumn id="2" xr3:uid="{58BB80A7-E081-4F57-AB6E-D98EF686B935}" name="保存地址" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{58BB80A7-E081-4F57-AB6E-D98EF686B935}" name="保存地址" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -804,44 +854,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C0F65C-7C18-408E-A577-FF1A0B38F815}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -893,8 +943,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -905,28 +976,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4BED29-17FF-4F01-B89A-5B5EF369F40C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" customWidth="1"/>
     <col min="3" max="3" width="11.453125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>10</v>
+      <c r="A1" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -934,25 +1005,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
@@ -966,7 +1046,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -979,13 +1059,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,10 +1084,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,10 +1095,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,21 +1106,21 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>35</v>
+      <c r="B6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1048,14 +1128,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1069,7 +1149,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1080,41 +1160,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
